--- a/individual_results/avey/359.xlsx
+++ b/individual_results/avey/359.xlsx
@@ -579,7 +579,7 @@
         <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L2" t="n">
         <v>0.3333333333333333</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -721,7 +721,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
         <v>0.4</v>
@@ -790,7 +790,7 @@
         <v>0.7692307692307692</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
         <v>0.4545454545454545</v>
@@ -863,7 +863,7 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.17376534287144</v>
       </c>
       <c r="L6" t="n">
         <v>0.1377057761880933</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1148,9 +1148,7 @@
       <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
